--- a/data/processed/3rd/MASTER_human-eval_3rd.xlsx
+++ b/data/processed/3rd/MASTER_human-eval_3rd.xlsx
@@ -8331,7 +8331,7 @@
       </c>
       <c r="T119"/>
       <c r="U119" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="T120"/>
       <c r="U120" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="T121"/>
       <c r="U121" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
@@ -8522,7 +8522,7 @@
         <v>144</v>
       </c>
       <c r="U122" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="T123"/>
       <c r="U123" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="T124"/>
       <c r="U124" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125">
@@ -8713,7 +8713,7 @@
         <v>145</v>
       </c>
       <c r="U125" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126">
